--- a/docs/Plantillas/Plantilla_Rpto_CuotaAdmin_CiudadesBerli.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_CuotaAdmin_CiudadesBerli.xlsx
@@ -49,9 +49,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,14 +103,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -122,12 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -135,7 +123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -441,40 +428,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>1</v>
@@ -486,22 +474,22 @@
       <c r="I6" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -774,8 +762,8 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
@@ -788,910 +776,910 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="483">
